--- a/Code/Results/Cases/Case_0_86/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_86/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.001070519312565743</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.01296528991828083</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.599726611345972</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.147607070432329</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.002380343752329079</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.8722735712656942</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.74559219765871</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.001792239909081061</v>
+      </c>
+      <c r="D3">
+        <v>0.01528538987001937</v>
+      </c>
+      <c r="E3">
+        <v>2.261047499882409</v>
+      </c>
+      <c r="F3">
+        <v>1.127002565761558</v>
+      </c>
+      <c r="G3">
+        <v>0.002395775557560203</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.8575324200243557</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>9.404192102276681</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.002349271731557856</v>
+      </c>
+      <c r="D4">
+        <v>0.01710685315210014</v>
+      </c>
+      <c r="E4">
+        <v>2.053451173740768</v>
+      </c>
+      <c r="F4">
+        <v>1.119963291924904</v>
+      </c>
+      <c r="G4">
+        <v>0.002405600185130221</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.8529061792207813</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>8.581957892233561</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.002603148468347527</v>
+      </c>
+      <c r="D5">
+        <v>0.01794319843950376</v>
+      </c>
+      <c r="E5">
+        <v>1.968905035432272</v>
+      </c>
+      <c r="F5">
+        <v>1.118438878230833</v>
+      </c>
+      <c r="G5">
+        <v>0.002409692987025087</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.8520803452191501</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>8.247082110382678</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.002646878411978193</v>
+      </c>
+      <c r="D6">
+        <v>0.01808759317335884</v>
+      </c>
+      <c r="E6">
+        <v>1.954868252656894</v>
+      </c>
+      <c r="F6">
+        <v>1.118265026885524</v>
+      </c>
+      <c r="G6">
+        <v>0.002410378017577459</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.8520056856082476</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>8.191483417743541</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.002352589016264339</v>
+      </c>
+      <c r="D7">
+        <v>0.01711775881922506</v>
+      </c>
+      <c r="E7">
+        <v>2.052310795945232</v>
+      </c>
+      <c r="F7">
+        <v>1.119937377272095</v>
+      </c>
+      <c r="G7">
+        <v>0.002405655019525117</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.8528908210458326</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>8.577441065497737</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.001294644230007691</v>
+      </c>
+      <c r="D8">
+        <v>0.01367935207477089</v>
+      </c>
+      <c r="E8">
+        <v>2.482852543645606</v>
+      </c>
+      <c r="F8">
+        <v>1.139296633313535</v>
+      </c>
+      <c r="G8">
+        <v>0.00238559292891626</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.8662396580910752</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>10.28268891949955</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.0002075822805007732</v>
+      </c>
+      <c r="D9">
+        <v>0.01035785744677042</v>
+      </c>
+      <c r="E9">
+        <v>3.331888308741895</v>
+      </c>
+      <c r="F9">
+        <v>1.224959789470489</v>
+      </c>
+      <c r="G9">
+        <v>0.002348960285148075</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.930046895797588</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>13.64570599665905</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.0001351551420087915</v>
+      </c>
+      <c r="D10">
+        <v>0.0104038844629315</v>
+      </c>
+      <c r="E10">
+        <v>3.961605833834255</v>
+      </c>
+      <c r="F10">
+        <v>1.321625458015546</v>
+      </c>
+      <c r="G10">
+        <v>0.00232360300010958</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1.003562933725703</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>16.14055581501145</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.0002897606454719259</v>
+      </c>
+      <c r="D11">
+        <v>0.01106046362120594</v>
+      </c>
+      <c r="E11">
+        <v>4.250131951500748</v>
+      </c>
+      <c r="F11">
+        <v>1.374025990613859</v>
+      </c>
+      <c r="G11">
+        <v>0.002312382772677986</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1.043666615678688</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>17.28384596287481</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.0003779935333767526</v>
+      </c>
+      <c r="D12">
+        <v>0.01140917305071554</v>
+      </c>
+      <c r="E12">
+        <v>4.35975601763505</v>
+      </c>
+      <c r="F12">
+        <v>1.395179147018865</v>
+      </c>
+      <c r="G12">
+        <v>0.002308177260149666</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1.059889148131532</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>17.71826582589409</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.0003576250410306514</v>
+      </c>
+      <c r="D13">
+        <v>0.01132947598181744</v>
+      </c>
+      <c r="E13">
+        <v>4.336129091813689</v>
+      </c>
+      <c r="F13">
+        <v>1.390563521252773</v>
+      </c>
+      <c r="G13">
+        <v>0.002309081097316546</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1.056347945759327</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>17.6246351844128</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.0002964082987384487</v>
+      </c>
+      <c r="D14">
+        <v>0.01108709439411371</v>
+      </c>
+      <c r="E14">
+        <v>4.259143046861823</v>
+      </c>
+      <c r="F14">
+        <v>1.375739425970664</v>
+      </c>
+      <c r="G14">
+        <v>0.002312035925775323</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1.044980018854787</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>17.31955458936875</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.0002628617890505502</v>
+      </c>
+      <c r="D15">
+        <v>0.01095193047358123</v>
+      </c>
+      <c r="E15">
+        <v>4.212036622492235</v>
+      </c>
+      <c r="F15">
+        <v>1.366832909185916</v>
+      </c>
+      <c r="G15">
+        <v>0.002313851427941508</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1.038154190885422</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>17.13288542133375</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.0001290527402240116</v>
+      </c>
+      <c r="D16">
+        <v>0.0103744925859317</v>
+      </c>
+      <c r="E16">
+        <v>3.94279722697263</v>
+      </c>
+      <c r="F16">
+        <v>1.318378787514547</v>
+      </c>
+      <c r="G16">
+        <v>0.002324342442872706</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1.00108266664742</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>16.06603063502428</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>9.686844583356446E-05</v>
+      </c>
+      <c r="D17">
+        <v>0.01018902188370419</v>
+      </c>
+      <c r="E17">
+        <v>3.778203039666664</v>
+      </c>
+      <c r="F17">
+        <v>1.290879961140121</v>
+      </c>
+      <c r="G17">
+        <v>0.002330857663295907</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.9801005015638538</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>15.41388258206888</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>9.583532440249343E-05</v>
+      </c>
+      <c r="D18">
+        <v>0.01014161689301574</v>
+      </c>
+      <c r="E18">
+        <v>3.68372263041374</v>
+      </c>
+      <c r="F18">
+        <v>1.275850250680634</v>
+      </c>
+      <c r="G18">
+        <v>0.002334634813015805</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.9686540657599352</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>15.03955403108336</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>9.840814516426377E-05</v>
+      </c>
+      <c r="D19">
+        <v>0.01013549292491689</v>
+      </c>
+      <c r="E19">
+        <v>3.651763807014788</v>
+      </c>
+      <c r="F19">
+        <v>1.270893709601893</v>
+      </c>
+      <c r="G19">
+        <v>0.002335918860220827</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.9648830226472995</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>14.91293700577438</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>9.846656935508236E-05</v>
+      </c>
+      <c r="D20">
+        <v>0.01020257031515115</v>
+      </c>
+      <c r="E20">
+        <v>3.795704251394</v>
+      </c>
+      <c r="F20">
+        <v>1.293725127215964</v>
+      </c>
+      <c r="G20">
+        <v>0.00233016103989432</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0.9822691695867718</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>15.48322326493792</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.0003135606959574488</v>
+      </c>
+      <c r="D21">
+        <v>0.0111554992256373</v>
+      </c>
+      <c r="E21">
+        <v>4.2817452140672</v>
+      </c>
+      <c r="F21">
+        <v>1.38005724380514</v>
+      </c>
+      <c r="G21">
+        <v>0.002311166860595138</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1.048290282037527</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>17.40912162953322</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.0006285991735985874</v>
+      </c>
+      <c r="D22">
+        <v>0.01236613963278899</v>
+      </c>
+      <c r="E22">
+        <v>4.601568324634911</v>
+      </c>
+      <c r="F22">
+        <v>1.444168068510038</v>
+      </c>
+      <c r="G22">
+        <v>0.002299004702823819</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1.097518788319718</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>18.67658628306799</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.0004435378740210716</v>
+      </c>
+      <c r="D23">
+        <v>0.01166316613406337</v>
+      </c>
+      <c r="E23">
+        <v>4.430649908522525</v>
+      </c>
+      <c r="F23">
+        <v>1.409213083506131</v>
+      </c>
+      <c r="G23">
+        <v>0.002305473530308091</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1.070660929786143</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>17.99921469828308</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>9.768984416691495E-05</v>
+      </c>
+      <c r="D24">
+        <v>0.01019626124550399</v>
+      </c>
+      <c r="E24">
+        <v>3.787791500860351</v>
+      </c>
+      <c r="F24">
+        <v>1.29243640630483</v>
+      </c>
+      <c r="G24">
+        <v>0.002330475885336227</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.981286800398621</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>15.45187249380484</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.0003836463437636439</v>
+      </c>
+      <c r="D25">
+        <v>0.01085039940394239</v>
+      </c>
+      <c r="E25">
+        <v>3.101398229669854</v>
+      </c>
+      <c r="F25">
+        <v>1.196215940163967</v>
+      </c>
+      <c r="G25">
+        <v>0.002358589786772393</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0.9083886623729001</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>12.73266917354209</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
